--- a/listofpapers_final_5pillars.xlsx
+++ b/listofpapers_final_5pillars.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\uav-anomaly-papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1DBE9B-E819-41DF-AFAF-E8C202D562FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D4C27-55CA-4F08-9A28-AC16AB462157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Papers" sheetId="1" r:id="rId1"/>
@@ -5163,8 +5163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8365,7 +8365,7 @@
         <v>28</v>
       </c>
       <c r="I50" t="s">
-        <v>641</v>
+        <v>29</v>
       </c>
       <c r="J50" t="s">
         <v>64</v>
